--- a/bh3/504212049400812048_2021-03-20_18-00-16.xlsx
+++ b/bh3/504212049400812048_2021-03-20_18-00-16.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-05-01 23:54:15</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44317.99600694444</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -617,10 +631,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-04-16 18:20:48</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44302.76444444444</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -692,10 +704,8 @@
           <t>4292806741</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:09:21</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44281.63149305555</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -763,10 +773,8 @@
           <t>4312103031</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-03-25 00:00:57</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44280.00065972222</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -838,10 +846,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:26:51</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44279.8103125</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -913,10 +919,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-03-24 03:16:02</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44279.13613425926</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -976,10 +980,8 @@
           <t>4307495801</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:02:07</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44278.95980324074</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1039,10 +1041,8 @@
           <t>4292702289</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-03-23 06:13:57</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44278.2596875</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1106,10 +1106,8 @@
           <t>4303757036</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-03-23 00:45:03</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44278.03128472222</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1185,10 +1183,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-03-22 11:39:45</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44277.4859375</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -1264,10 +1260,8 @@
           <t>4299205565</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-03-21 23:18:18</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44276.97104166666</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1331,10 +1325,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-03-21 22:05:52</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44276.92074074074</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1398,10 +1390,8 @@
           <t>4298301997</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-03-21 20:18:49</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44276.84640046296</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1465,10 +1455,8 @@
           <t>4298276616</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-03-21 20:12:29</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44276.84200231481</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1532,10 +1520,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-03-21 19:39:29</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44276.81908564815</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1599,10 +1585,8 @@
           <t>4297842736</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-03-21 18:39:42</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44276.77756944444</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1679,10 +1663,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-03-21 16:54:31</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44276.70452546296</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1742,10 +1724,8 @@
           <t>4296952274</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-03-21 15:10:12</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44276.63208333333</v>
       </c>
       <c r="I19" t="n">
         <v>3</v>
@@ -1814,10 +1794,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-03-21 14:25:02</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44276.60071759259</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1893,10 +1871,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-03-21 13:01:15</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44276.54253472222</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1964,10 +1940,8 @@
           <t>4296389996</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-03-21 12:59:20</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44276.5412037037</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2035,10 +2009,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-03-21 12:56:35</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44276.53929398148</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -2106,10 +2078,8 @@
           <t>4296368316</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-03-21 12:53:09</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44276.53690972222</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -2177,10 +2147,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-03-21 12:21:30</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44276.51493055555</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2249,10 +2217,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-03-21 10:49:53</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44276.45130787037</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2328,10 +2294,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-03-21 09:25:45</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44276.39288194444</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -2399,10 +2363,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-03-21 09:18:07</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44276.38758101852</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
@@ -2470,10 +2432,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-03-21 04:52:40</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44276.20324074074</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
@@ -2537,10 +2497,8 @@
           <t>4292838689</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-03-21 02:18:14</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44276.09599537037</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2604,10 +2562,8 @@
           <t>4292515471</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-03-21 02:17:17</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44276.09533564815</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2671,10 +2627,8 @@
           <t>4292515471</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-03-21 02:16:38</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44276.09488425926</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2738,10 +2692,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-03-21 01:09:12</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44276.04805555556</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2805,10 +2757,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-03-21 01:08:50</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44276.04780092592</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2872,10 +2822,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-03-21 01:08:20</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44276.0474537037</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2951,10 +2899,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-03-21 00:44:57</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44276.03121527778</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3026,10 +2972,8 @@
           <t>4293625689</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-03-21 00:18:06</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44276.01256944444</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3097,10 +3041,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-03-21 00:16:12</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44276.01125</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3164,10 +3106,8 @@
           <t>4292811718</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-03-20 23:56:33</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44275.99760416667</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3243,10 +3183,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-03-20 23:56:13</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44275.99737268518</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -3322,10 +3260,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-03-20 23:56:00</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44275.99722222222</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3393,10 +3329,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-03-20 23:51:14</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44275.99391203704</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3456,10 +3390,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-03-20 23:31:06</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44275.97993055556</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3523,10 +3455,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-03-20 23:24:35</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44275.97540509259</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3598,10 +3528,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-03-20 23:24:12</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44275.97513888889</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3673,10 +3601,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-03-20 23:16:39</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44275.96989583333</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3752,10 +3678,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-03-20 23:15:54</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44275.969375</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3819,10 +3743,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-03-20 23:12:04</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44275.96671296296</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3890,10 +3812,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-03-20 23:07:53</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44275.96380787037</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -3965,10 +3885,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-03-20 23:06:28</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44275.96282407407</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4040,10 +3958,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-03-20 22:56:25</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44275.95584490741</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4115,10 +4031,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-03-20 22:53:32</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44275.95384259259</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4190,10 +4104,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-03-20 22:39:27</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44275.9440625</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4253,10 +4165,8 @@
           <t>4292699837</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-03-20 22:28:49</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44275.93667824074</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4332,10 +4242,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-03-20 22:26:39</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44275.93517361111</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -4411,10 +4319,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-03-20 22:25:45</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44275.93454861111</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -4490,10 +4396,8 @@
           <t>4293625689</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-03-20 22:23:47</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44275.93318287037</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4569,10 +4473,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-03-20 22:23:39</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44275.93309027778</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4644,10 +4546,8 @@
           <t>4292652775</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-03-20 22:23:12</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44275.93277777778</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
@@ -4711,10 +4611,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-03-20 22:20:21</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44275.93079861111</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4778,10 +4676,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-03-20 22:18:52</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44275.92976851852</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4853,10 +4749,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-03-20 22:18:20</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44275.92939814815</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4928,10 +4822,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-03-20 22:15:14</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44275.92724537037</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5003,10 +4895,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-03-20 22:09:31</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44275.92327546296</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5074,10 +4964,8 @@
           <t>4293737996</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-03-20 22:03:10</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44275.91886574074</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5149,10 +5037,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-03-20 22:00:06</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44275.91673611111</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5228,10 +5114,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-03-20 21:54:53</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44275.91311342592</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5296,10 +5180,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-03-20 21:43:49</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44275.90542824074</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5367,10 +5249,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-03-20 21:43:06</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44275.90493055555</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5438,10 +5318,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-03-20 21:42:46</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44275.90469907408</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5501,10 +5379,8 @@
           <t>4293625689</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-03-20 21:41:15</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44275.90364583334</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5572,10 +5448,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-03-20 21:30:26</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44275.89613425926</v>
       </c>
       <c r="I72" t="n">
         <v>3</v>
@@ -5643,10 +5517,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-03-20 21:30:13</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44275.8959837963</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5713,10 +5585,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-03-20 21:16:29</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44275.88644675926</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5784,10 +5654,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-03-20 21:11:06</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44275.88270833333</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5859,10 +5727,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-03-20 20:39:52</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44275.86101851852</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5922,10 +5788,8 @@
           <t>4293212965</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-03-20 20:24:54</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44275.850625</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -5993,10 +5857,8 @@
           <t>4293198422</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-03-20 20:22:12</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44275.84875</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6064,10 +5926,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-03-20 20:11:19</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44275.84119212963</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6143,10 +6003,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-03-20 20:11:17</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44275.84116898148</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6214,10 +6072,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-03-20 20:06:47</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44275.83804398148</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6281,10 +6137,8 @@
           <t>4293093258</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-03-20 20:02:29</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44275.83505787037</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6360,10 +6214,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-03-20 20:01:41</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44275.83450231481</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6439,10 +6291,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:55:57</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44275.83052083333</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6515,10 +6365,8 @@
           <t>4292477388</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:55:55</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44275.83049768519</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6586,10 +6434,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:55:50</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44275.83043981482</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6658,10 +6504,8 @@
           <t>4292811718</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:52:18</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44275.82798611111</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6730,10 +6574,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:49:39</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44275.82614583334</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6809,10 +6651,8 @@
           <t>4293006087</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:44:03</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44275.82225694445</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6888,10 +6728,8 @@
           <t>4292570327</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:42:41</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44275.82130787037</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6955,10 +6793,8 @@
           <t>4292987947</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:41:41</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44275.82061342592</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -7027,10 +6863,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:40:52</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44275.8200462963</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7108,10 +6942,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:40:25</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44275.8197337963</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -7171,10 +7003,8 @@
           <t>4292979772</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:40:25</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44275.8197337963</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7242,10 +7072,8 @@
           <t>4292985793</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:40:25</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44275.8197337963</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7313,10 +7141,8 @@
           <t>4292699837</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:35:23</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44275.81623842593</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7384,10 +7210,8 @@
           <t>4292699837</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:34:47</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44275.81582175926</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7455,10 +7279,8 @@
           <t>4292699837</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:34:29</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44275.81561342593</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -7534,10 +7356,8 @@
           <t>4292515471</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:33:10</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44275.81469907407</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7597,10 +7417,8 @@
           <t>4292515471</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:32:51</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44275.81447916666</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7660,10 +7478,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:31:05</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44275.81325231482</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7727,10 +7543,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:29:04</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44275.81185185185</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7794,10 +7608,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:27:59</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44275.81109953704</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7865,10 +7677,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:26:59</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44275.81040509259</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -7944,10 +7754,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:26:49</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44275.81028935185</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8015,10 +7823,8 @@
           <t>4292907624</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:25:00</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44275.80902777778</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8086,10 +7892,8 @@
           <t>4292699837</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:24:39</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44275.80878472222</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8154,10 +7958,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:23:44</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44275.80814814815</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8225,10 +8027,8 @@
           <t>4292901314</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:23:27</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44275.80795138889</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8304,10 +8104,8 @@
           <t>4292698135</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:20:24</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44275.80583333333</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
@@ -8375,10 +8173,8 @@
           <t>4292755716</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:20:09</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44275.80565972222</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8450,10 +8246,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:19:08</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44275.8049537037</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8529,10 +8323,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:18:21</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44275.80440972222</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8596,10 +8388,8 @@
           <t>4292510985</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:18:07</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44275.80424768518</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8667,10 +8457,8 @@
           <t>4292871342</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:17:38</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44275.80391203704</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
@@ -8746,10 +8534,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:17:08</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44275.80356481481</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8825,10 +8611,8 @@
           <t>4292857736</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:15:29</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44275.80241898148</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8900,10 +8684,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:14:39</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44275.80184027777</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -8967,10 +8749,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:14:22</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44275.80164351852</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9034,10 +8814,8 @@
           <t>4292848176</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:14:06</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44275.80145833334</v>
       </c>
       <c r="I120" t="n">
         <v>1</v>
@@ -9101,10 +8879,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:13:50</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44275.80127314815</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9172,10 +8948,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:13:49</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44275.80126157407</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9251,10 +9025,8 @@
           <t>4292838689</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:13:06</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44275.80076388889</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9326,10 +9098,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:12:55</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44275.80063657407</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -9393,10 +9163,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:11:24</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44275.79958333333</v>
       </c>
       <c r="I125" t="n">
         <v>7</v>
@@ -9472,10 +9240,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:10:57</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44275.79927083333</v>
       </c>
       <c r="I126" t="n">
         <v>1</v>
@@ -9539,10 +9305,8 @@
           <t>4292699837</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:10:54</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44275.79923611111</v>
       </c>
       <c r="I127" t="n">
         <v>1</v>
@@ -9610,10 +9374,8 @@
           <t>4292832268</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:10:50</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44275.79918981482</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9681,10 +9443,8 @@
           <t>4292829677</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:10:48</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44275.79916666666</v>
       </c>
       <c r="I129" t="n">
         <v>2</v>
@@ -9752,10 +9512,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:10:31</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44275.79896990741</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9819,10 +9577,8 @@
           <t>4292831718</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:10:30</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44275.79895833333</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9882,10 +9638,8 @@
           <t>4292699837</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:09:39</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44275.79836805556</v>
       </c>
       <c r="I132" t="n">
         <v>5</v>
@@ -9953,10 +9707,8 @@
           <t>4292489646</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:09:33</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44275.79829861111</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10024,10 +9776,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:09:28</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44275.79824074074</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10105,10 +9855,8 @@
           <t>4292699837</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:09:24</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44275.79819444445</v>
       </c>
       <c r="I135" t="n">
         <v>1</v>
@@ -10184,10 +9932,8 @@
           <t>4292652775</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:09:06</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44275.79798611111</v>
       </c>
       <c r="I136" t="n">
         <v>4</v>
@@ -10255,10 +10001,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:09:02</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44275.79793981482</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10330,10 +10074,8 @@
           <t>4292826521</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:09:01</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44275.79792824074</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10401,10 +10143,8 @@
           <t>4292515471</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:08:58</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44275.79789351852</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10472,10 +10212,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:08:41</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44275.79769675926</v>
       </c>
       <c r="I140" t="n">
         <v>21</v>
@@ -10551,10 +10289,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:08:37</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44275.79765046296</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10630,10 +10366,8 @@
           <t>4292510985</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:08:27</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44275.79753472222</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10701,10 +10435,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:08:14</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44275.79738425926</v>
       </c>
       <c r="I143" t="n">
         <v>1</v>
@@ -10764,10 +10496,8 @@
           <t>4292815794</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:07:14</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44275.79668981482</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10835,10 +10565,8 @@
           <t>4292815521</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:07:06</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44275.79659722222</v>
       </c>
       <c r="I145" t="n">
         <v>1</v>
@@ -10914,10 +10642,8 @@
           <t>4292808243</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:07:02</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44275.79655092592</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -10985,10 +10711,8 @@
           <t>4292811718</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:06:20</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44275.79606481481</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11064,10 +10788,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:06:10</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44275.79594907408</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11139,10 +10861,8 @@
           <t>4292806741</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:06:10</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44275.79594907408</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11218,10 +10938,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:05:18</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44275.79534722222</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11293,10 +11011,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:04:03</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44275.79447916667</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11368,10 +11084,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:03:59</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44275.79443287037</v>
       </c>
       <c r="I152" t="n">
         <v>8</v>
@@ -11447,10 +11161,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:03:58</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44275.7944212963</v>
       </c>
       <c r="I153" t="n">
         <v>6</v>
@@ -11522,10 +11234,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:03:37</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44275.79417824074</v>
       </c>
       <c r="I154" t="n">
         <v>2</v>
@@ -11589,10 +11299,8 @@
           <t>4292677239</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:03:24</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44275.79402777777</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11660,10 +11368,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:03:24</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44275.79402777777</v>
       </c>
       <c r="I156" t="n">
         <v>5</v>
@@ -11727,10 +11433,8 @@
           <t>4292602605</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:02:54</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44275.79368055556</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11798,10 +11502,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:02:24</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44275.79333333333</v>
       </c>
       <c r="I158" t="n">
         <v>5</v>
@@ -11865,10 +11567,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:02:13</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44275.79320601852</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -11945,10 +11645,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:01:49</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44275.79292824074</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12020,10 +11718,8 @@
           <t>4292559162</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:01:25</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44275.79265046296</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12091,10 +11787,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:01:15</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44275.79253472222</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12158,10 +11852,8 @@
           <t>4292699837</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:01:08</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44275.7924537037</v>
       </c>
       <c r="I163" t="n">
         <v>2</v>
@@ -12237,10 +11929,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:00:53</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44275.7922800926</v>
       </c>
       <c r="I164" t="n">
         <v>2</v>
@@ -12304,10 +11994,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:59:56</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44275.79162037037</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12375,10 +12063,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:59:33</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44275.79135416666</v>
       </c>
       <c r="I166" t="n">
         <v>1</v>
@@ -12450,10 +12136,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:58:45</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44275.79079861111</v>
       </c>
       <c r="I167" t="n">
         <v>2</v>
@@ -12521,10 +12205,8 @@
           <t>4292767150</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:58:12</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44275.79041666666</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12592,10 +12274,8 @@
           <t>4292698135</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:58:12</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44275.79041666666</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12667,10 +12347,8 @@
           <t>4292602605</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:57:54</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44275.79020833333</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12742,10 +12420,8 @@
           <t>4292699837</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:57:48</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44275.79013888889</v>
       </c>
       <c r="I171" t="n">
         <v>1</v>
@@ -12809,10 +12485,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:57:13</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44275.78973379629</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12880,10 +12554,8 @@
           <t>4292760012</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:56:44</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44275.78939814815</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -12947,10 +12619,8 @@
           <t>4292755716</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:56:36</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44275.78930555555</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13022,10 +12692,8 @@
           <t>4292699837</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:55:42</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44275.78868055555</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13093,10 +12761,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:55:38</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44275.78863425926</v>
       </c>
       <c r="I176" t="n">
         <v>5</v>
@@ -13168,10 +12834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:55:29</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44275.78853009259</v>
       </c>
       <c r="I177" t="n">
         <v>3</v>
@@ -13248,10 +12912,8 @@
           <t>4292698135</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:55:10</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44275.78831018518</v>
       </c>
       <c r="I178" t="n">
         <v>3</v>
@@ -13319,10 +12981,8 @@
           <t>4292742379</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:54:51</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44275.78809027778</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13394,10 +13054,8 @@
           <t>4292741977</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:54:39</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44275.78795138889</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13465,10 +13123,8 @@
           <t>4292739377</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:53:55</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44275.78744212963</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13540,10 +13196,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:53:33</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44275.7871875</v>
       </c>
       <c r="I182" t="n">
         <v>6</v>
@@ -13620,10 +13274,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:52:45</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44275.78663194444</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13691,10 +13343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:52:05</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44275.78616898148</v>
       </c>
       <c r="I184" t="n">
         <v>1</v>
@@ -13762,10 +13412,8 @@
           <t>4292735120</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:51:35</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44275.78582175926</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13829,10 +13477,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:51:29</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44275.78575231481</v>
       </c>
       <c r="I186" t="n">
         <v>5</v>
@@ -13900,10 +13546,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:51:28</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44275.78574074074</v>
       </c>
       <c r="I187" t="n">
         <v>8</v>
@@ -13980,10 +13624,8 @@
           <t>4292582278</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:51:05</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44275.78547453704</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14051,10 +13693,8 @@
           <t>4292723785</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:50:52</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44275.78532407407</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14118,10 +13758,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:50:35</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44275.78512731481</v>
       </c>
       <c r="I190" t="n">
         <v>3</v>
@@ -14185,10 +13823,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:50:31</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44275.78508101852</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14256,10 +13892,8 @@
           <t>4292477388</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:50:00</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44275.78472222222</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14323,10 +13957,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:49:53</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44275.7846412037</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14390,10 +14022,8 @@
           <t>4292722063</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:49:53</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44275.7846412037</v>
       </c>
       <c r="I194" t="n">
         <v>1</v>
@@ -14461,10 +14091,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:49:46</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44275.78456018519</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14524,10 +14152,8 @@
           <t>4292698135</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:49:38</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44275.7844675926</v>
       </c>
       <c r="I196" t="n">
         <v>3</v>
@@ -14599,10 +14225,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:49:32</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44275.78439814815</v>
       </c>
       <c r="I197" t="n">
         <v>5</v>
@@ -14667,10 +14291,8 @@
           <t>4292515471</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:48:55</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44275.78396990741</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14738,10 +14360,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:48:46</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44275.78386574074</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14809,10 +14429,8 @@
           <t>4292710484</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:48:35</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44275.78373842593</v>
       </c>
       <c r="I200" t="n">
         <v>2</v>
@@ -14888,10 +14506,8 @@
           <t>4292588448</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:48:16</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44275.78351851852</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -14959,10 +14575,8 @@
           <t>4292699576</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:48:04</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44275.78337962963</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15034,10 +14648,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:47:30</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44275.78298611111</v>
       </c>
       <c r="I203" t="n">
         <v>2</v>
@@ -15101,10 +14713,8 @@
           <t>4292698135</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:47:13</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44275.78278935186</v>
       </c>
       <c r="I204" t="n">
         <v>14</v>
@@ -15172,10 +14782,8 @@
           <t>4292677239</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:46:56</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44275.78259259259</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15239,10 +14847,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:46:53</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44275.78255787037</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15306,10 +14912,8 @@
           <t>4292702289</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:46:50</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44275.78252314815</v>
       </c>
       <c r="I207" t="n">
         <v>1</v>
@@ -15381,10 +14985,8 @@
           <t>4292696711</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:46:23</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44275.78221064815</v>
       </c>
       <c r="I208" t="n">
         <v>4</v>
@@ -15462,10 +15064,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:46:14</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44275.78210648148</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15537,10 +15137,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:45:22</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44275.78150462963</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15616,10 +15214,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:45:05</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44275.78130787037</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15687,10 +15283,8 @@
           <t>4292684407</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:45:04</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44275.7812962963</v>
       </c>
       <c r="I212" t="n">
         <v>1</v>
@@ -15758,10 +15352,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:44:49</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44275.78112268518</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15825,10 +15417,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:44:20</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44275.78078703704</v>
       </c>
       <c r="I214" t="n">
         <v>1</v>
@@ -15904,10 +15494,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:43:24</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44275.78013888889</v>
       </c>
       <c r="I215" t="n">
         <v>3</v>
@@ -15979,10 +15567,8 @@
           <t>4292679819</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:42:54</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44275.77979166667</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16050,10 +15636,8 @@
           <t>4292674490</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:42:34</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44275.77956018518</v>
       </c>
       <c r="I217" t="n">
         <v>4</v>
@@ -16121,10 +15705,8 @@
           <t>4292602605</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:42:16</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44275.77935185185</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16192,10 +15774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:42:11</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44275.77929398148</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16255,10 +15835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:41:31</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44275.77883101852</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16334,10 +15912,8 @@
           <t>4292677239</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:41:27</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44275.77878472222</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16405,10 +15981,8 @@
           <t>4292676539</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:41:03</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44275.77850694444</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16480,10 +16054,8 @@
           <t>4292647445</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:40:31</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44275.77813657407</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16555,10 +16127,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:40:28</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44275.77810185185</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16634,10 +16204,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:40:25</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44275.77806712963</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16705,10 +16273,8 @@
           <t>4292647284</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:40:07</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44275.7778587963</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16780,10 +16346,8 @@
           <t>4292665714</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:40:02</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44275.77780092593</v>
       </c>
       <c r="I227" t="n">
         <v>1</v>
@@ -16855,10 +16419,8 @@
           <t>4292659445</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:39:53</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44275.77769675926</v>
       </c>
       <c r="I228" t="n">
         <v>1</v>
@@ -16930,10 +16492,8 @@
           <t>4292539875</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:39:47</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44275.77762731481</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17005,10 +16565,8 @@
           <t>4292489646</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:39:43</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44275.77758101852</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17076,10 +16634,8 @@
           <t>4292652775</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:38:25</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44275.77667824074</v>
       </c>
       <c r="I231" t="n">
         <v>14</v>
@@ -17155,10 +16711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:38:08</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44275.77648148148</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17234,10 +16788,8 @@
           <t>4292539611</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:37:57</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44275.77635416666</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17305,10 +16857,8 @@
           <t>4292655509</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:37:41</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44275.77616898148</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17372,10 +16922,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:36:30</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44275.77534722222</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17451,10 +16999,8 @@
           <t>4292647445</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:35:58</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44275.77497685186</v>
       </c>
       <c r="I236" t="n">
         <v>25</v>
@@ -17526,10 +17072,8 @@
           <t>4292647284</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:35:53</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44275.77491898148</v>
       </c>
       <c r="I237" t="n">
         <v>34</v>
@@ -17605,10 +17149,8 @@
           <t>4292581663</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:35:34</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44275.77469907407</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17672,10 +17214,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:34:52</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44275.77421296296</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17747,10 +17287,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:34:44</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44275.77412037037</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17818,10 +17356,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:34:37</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44275.77403935185</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -17885,10 +17421,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:34:18</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44275.77381944445</v>
       </c>
       <c r="I242" t="n">
         <v>1</v>
@@ -17960,10 +17494,8 @@
           <t>4292634408</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:34:15</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44275.77378472222</v>
       </c>
       <c r="I243" t="n">
         <v>1</v>
@@ -18031,10 +17563,8 @@
           <t>4292477388</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:34:12</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44275.77375</v>
       </c>
       <c r="I244" t="n">
         <v>1</v>
@@ -18102,10 +17632,8 @@
           <t>4292624227</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:33:15</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44275.77309027778</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18177,10 +17705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:33:06</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44275.77298611111</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18248,10 +17774,8 @@
           <t>4292510985</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:32:53</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44275.77283564815</v>
       </c>
       <c r="I247" t="n">
         <v>2</v>
@@ -18323,10 +17847,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:32:49</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44275.77278935185</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18398,10 +17920,8 @@
           <t>4292474402</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:32:49</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44275.77278935185</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18469,10 +17989,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:31:55</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44275.77216435185</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18544,10 +18062,8 @@
           <t>4292621956</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:31:54</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44275.77215277778</v>
       </c>
       <c r="I251" t="n">
         <v>1</v>
@@ -18611,10 +18127,8 @@
           <t>4292619683</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:31:31</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44275.77188657408</v>
       </c>
       <c r="I252" t="n">
         <v>2</v>
@@ -18686,10 +18200,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:30:43</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44275.77133101852</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18753,10 +18265,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:29:45</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44275.77065972222</v>
       </c>
       <c r="I254" t="n">
         <v>7</v>
@@ -18832,10 +18342,8 @@
           <t>4292608247</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:29:41</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44275.77061342593</v>
       </c>
       <c r="I255" t="n">
         <v>2</v>
@@ -18899,10 +18407,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:29:30</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44275.77048611111</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -18974,10 +18480,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:28:39</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44275.76989583333</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19041,10 +18545,8 @@
           <t>4292527252</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:28:24</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44275.76972222222</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19116,10 +18618,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:27:47</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44275.76929398148</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19187,10 +18687,8 @@
           <t>4292474402</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:27:45</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44275.76927083333</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19255,10 +18753,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:27:41</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44275.76922453703</v>
       </c>
       <c r="I261" t="n">
         <v>1</v>
@@ -19326,10 +18822,8 @@
           <t>4292602605</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:27:26</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44275.76905092593</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19401,10 +18895,8 @@
           <t>4292592353</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:26:07</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44275.76813657407</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19480,10 +18972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:25:54</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44275.76798611111</v>
       </c>
       <c r="I264" t="n">
         <v>2</v>
@@ -19555,10 +19045,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:25:51</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44275.76795138889</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19626,10 +19114,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:25:48</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44275.76791666666</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19701,10 +19187,8 @@
           <t>4292588448</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:25:03</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44275.76739583333</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19768,10 +19252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:24:44</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44275.76717592592</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -19835,10 +19317,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:24:13</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44275.76681712963</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -19902,10 +19382,8 @@
           <t>4292586944</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:24:12</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44275.76680555556</v>
       </c>
       <c r="I270" t="n">
         <v>3</v>
@@ -19982,10 +19460,8 @@
           <t>4292581663</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:24:02</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44275.76668981482</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20057,10 +19533,8 @@
           <t>4292582278</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:23:53</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44275.76658564815</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20124,10 +19598,8 @@
           <t>4292581663</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:23:33</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44275.76635416667</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20191,10 +19663,8 @@
           <t>4292585051</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:23:08</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44275.76606481482</v>
       </c>
       <c r="I274" t="n">
         <v>1</v>
@@ -20258,10 +19728,8 @@
           <t>4292573379</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:22:10</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44275.76539351852</v>
       </c>
       <c r="I275" t="n">
         <v>5</v>
@@ -20329,10 +19797,8 @@
           <t>4292575679</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:22:06</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44275.76534722222</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20404,10 +19870,8 @@
           <t>4292575475</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:21:58</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44275.76525462963</v>
       </c>
       <c r="I277" t="n">
         <v>4</v>
@@ -20474,10 +19938,8 @@
           <t>4292510985</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:21:40</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44275.7650462963</v>
       </c>
       <c r="I278" t="n">
         <v>4</v>
@@ -20545,10 +20007,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:21:11</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44275.76471064815</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20624,10 +20084,8 @@
           <t>4292570327</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:20:27</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44275.76420138889</v>
       </c>
       <c r="I280" t="n">
         <v>1</v>
@@ -20699,10 +20157,8 @@
           <t>4292566352</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:20:24</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44275.76416666667</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20770,10 +20226,8 @@
           <t>4292570225</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:20:23</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44275.76415509259</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -20840,10 +20294,8 @@
           <t>4292474402</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:20:15</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44275.7640625</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -20903,10 +20355,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:20:06</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44275.76395833334</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -20974,10 +20424,8 @@
           <t>4292489646</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:19:49</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44275.76376157408</v>
       </c>
       <c r="I285" t="n">
         <v>1</v>
@@ -21045,10 +20493,8 @@
           <t>4292559162</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:19:46</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44275.76372685185</v>
       </c>
       <c r="I286" t="n">
         <v>2</v>
@@ -21124,10 +20570,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:19:40</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44275.76365740741</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21199,10 +20643,8 @@
           <t>4292539875</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:19:30</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44275.76354166667</v>
       </c>
       <c r="I288" t="n">
         <v>2</v>
@@ -21266,10 +20708,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:19:20</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44275.76342592593</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21341,10 +20781,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:19:14</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44275.76335648148</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21412,10 +20850,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:18:36</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44275.76291666667</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21483,10 +20919,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:18:32</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44275.76287037037</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21554,10 +20988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:18:17</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44275.76269675926</v>
       </c>
       <c r="I293" t="n">
         <v>14</v>
@@ -21621,10 +21053,8 @@
           <t>4292552156</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:17:55</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44275.76244212963</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21696,10 +21126,8 @@
           <t>4292539875</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:17:52</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44275.7624074074</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21775,10 +21203,8 @@
           <t>4292515471</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:17:34</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44275.76219907407</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -21838,10 +21264,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:16:50</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44275.76168981481</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -21909,10 +21333,8 @@
           <t>4292539875</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:16:33</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44275.76149305556</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -21980,10 +21402,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:16:24</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44275.76138888889</v>
       </c>
       <c r="I299" t="n">
         <v>1</v>
@@ -22055,10 +21475,8 @@
           <t>4292539611</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:16:23</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44275.76137731481</v>
       </c>
       <c r="I300" t="n">
         <v>38</v>
@@ -22130,10 +21548,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:16:04</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44275.76115740741</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22205,10 +21621,8 @@
           <t>4292545218</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:15:46</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44275.76094907407</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22268,10 +21682,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:15:44</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44275.76092592593</v>
       </c>
       <c r="I303" t="n">
         <v>4</v>
@@ -22343,10 +21755,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:15:05</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44275.76047453703</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22418,10 +21828,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:14:58</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44275.76039351852</v>
       </c>
       <c r="I305" t="n">
         <v>1</v>
@@ -22489,10 +21897,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:14:41</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44275.76019675926</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22556,10 +21962,8 @@
           <t>4292536737</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:14:41</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44275.76019675926</v>
       </c>
       <c r="I307" t="n">
         <v>9</v>
@@ -22627,10 +22031,8 @@
           <t>4292533298</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:14:36</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44275.76013888889</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22698,10 +22100,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:13:35</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44275.75943287037</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -22773,10 +22173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:13:25</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44275.75931712963</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -22849,10 +22247,8 @@
           <t>4292524494</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:13:21</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44275.75927083333</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -22929,10 +22325,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:13:15</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44275.75920138889</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23000,10 +22394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:12:56</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44275.75898148148</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23079,10 +22471,8 @@
           <t>4292527252</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:12:51</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44275.75892361111</v>
       </c>
       <c r="I314" t="n">
         <v>64</v>
@@ -23158,10 +22548,8 @@
           <t>4292526959</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:12:41</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44275.75880787037</v>
       </c>
       <c r="I315" t="n">
         <v>2</v>
@@ -23225,10 +22613,8 @@
           <t>4292477388</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:12:34</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44275.75872685185</v>
       </c>
       <c r="I316" t="n">
         <v>1</v>
@@ -23296,10 +22682,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:12:32</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44275.7587037037</v>
       </c>
       <c r="I317" t="n">
         <v>1</v>
@@ -23367,10 +22751,8 @@
           <t>4292526006</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:12:09</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44275.7584375</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23447,10 +22829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:11:56</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44275.75828703704</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23522,10 +22902,8 @@
           <t>4292477388</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:11:53</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44275.75825231482</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23593,10 +22971,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:11:38</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44275.7580787037</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23664,10 +23040,8 @@
           <t>4292515471</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:11:06</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44275.75770833333</v>
       </c>
       <c r="I322" t="n">
         <v>1</v>
@@ -23745,10 +23119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:10:32</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44275.75731481481</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -23808,10 +23180,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:10:31</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44275.75730324074</v>
       </c>
       <c r="I324" t="n">
         <v>2</v>
@@ -23879,10 +23249,8 @@
           <t>4292489646</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:10:25</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44275.7572337963</v>
       </c>
       <c r="I325" t="n">
         <v>4</v>
@@ -23958,10 +23326,8 @@
           <t>4292509373</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:10:23</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44275.75721064815</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24033,10 +23399,8 @@
           <t>4292509276</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:10:19</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44275.75716435185</v>
       </c>
       <c r="I327" t="n">
         <v>24</v>
@@ -24104,10 +23468,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:10:14</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44275.75710648148</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24179,10 +23541,8 @@
           <t>4292477388</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:10:07</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44275.75702546296</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24250,10 +23610,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:10:04</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44275.75699074074</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24325,10 +23683,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:09:58</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44275.7569212963</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24398,10 +23754,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:09:57</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44275.75690972222</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24469,10 +23823,8 @@
           <t>4292515471</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:09:53</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44275.75686342592</v>
       </c>
       <c r="I333" t="n">
         <v>16</v>
@@ -24540,10 +23892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:09:38</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44275.75668981481</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24611,10 +23961,8 @@
           <t>4292510985</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:09:23</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44275.75651620371</v>
       </c>
       <c r="I335" t="n">
         <v>33</v>
@@ -24682,10 +24030,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:09:07</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44275.75633101852</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24757,10 +24103,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:08:51</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44275.75614583334</v>
       </c>
       <c r="I337" t="n">
         <v>1</v>
@@ -24828,10 +24172,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:08:49</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44275.75612268518</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -24899,10 +24241,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:08:38</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44275.75599537037</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -24962,10 +24302,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:08:33</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44275.7559375</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25033,10 +24371,8 @@
           <t>4292506036</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:08:25</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44275.75584490741</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25100,10 +24436,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:08:14</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44275.75571759259</v>
       </c>
       <c r="I342" t="n">
         <v>1</v>
@@ -25179,10 +24513,8 @@
           <t>4292489646</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:08:10</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44275.7556712963</v>
       </c>
       <c r="I343" t="n">
         <v>13</v>
@@ -25250,10 +24582,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:07:58</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44275.75553240741</v>
       </c>
       <c r="I344" t="n">
         <v>1</v>
@@ -25321,10 +24651,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:07:51</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44275.75545138889</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25392,10 +24720,8 @@
           <t>4292489646</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:07:49</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44275.75542824074</v>
       </c>
       <c r="I346" t="n">
         <v>10</v>
@@ -25463,10 +24789,8 @@
           <t>4292477388</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:07:15</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44275.75503472222</v>
       </c>
       <c r="I347" t="n">
         <v>6</v>
@@ -25542,10 +24866,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:07:14</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44275.75502314815</v>
       </c>
       <c r="I348" t="n">
         <v>395</v>
@@ -25613,10 +24935,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:07:06</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44275.75493055556</v>
       </c>
       <c r="I349" t="n">
         <v>210</v>
@@ -25685,10 +25005,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:07:02</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44275.75488425926</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -25753,10 +25071,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:06:59</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44275.75484953704</v>
       </c>
       <c r="I351" t="n">
         <v>1</v>
@@ -25832,10 +25148,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:06:48</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44275.75472222222</v>
       </c>
       <c r="I352" t="n">
         <v>1</v>
@@ -25907,10 +25221,8 @@
           <t>4292489646</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:06:32</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44275.75453703704</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -25978,10 +25290,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:06:29</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44275.75450231481</v>
       </c>
       <c r="I354" t="n">
         <v>8</v>
@@ -26053,10 +25363,8 @@
           <t>4292477388</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:06:26</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44275.75446759259</v>
       </c>
       <c r="I355" t="n">
         <v>73</v>
@@ -26128,10 +25436,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:06:09</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44275.75427083333</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26195,10 +25501,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:05:45</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44275.75399305556</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26274,10 +25578,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:05:36</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44275.75388888889</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26337,10 +25639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:05:22</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44275.75372685185</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26404,10 +25704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:05:15</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44275.75364583333</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26483,10 +25781,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:05:14</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44275.75363425926</v>
       </c>
       <c r="I361" t="n">
         <v>2</v>
@@ -26554,10 +25850,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:04:59</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44275.75346064815</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26625,10 +25919,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:04:57</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44275.7534375</v>
       </c>
       <c r="I363" t="n">
         <v>32</v>
@@ -26696,10 +25988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:04:48</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44275.75333333333</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -26776,10 +26066,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:04:34</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44275.7531712963</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -26855,10 +26143,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:04:21</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44275.75302083333</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -26934,10 +26220,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:04:10</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44275.75289351852</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27009,10 +26293,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:04:02</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44275.75280092593</v>
       </c>
       <c r="I368" t="n">
         <v>1</v>
@@ -27084,10 +26366,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:03:41</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44275.75255787037</v>
       </c>
       <c r="I369" t="n">
         <v>1</v>
@@ -27159,10 +26439,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:03:41</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44275.75255787037</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27238,10 +26516,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:03:40</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44275.75254629629</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27305,10 +26581,8 @@
           <t>4292477388</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:03:37</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44275.75251157407</v>
       </c>
       <c r="I372" t="n">
         <v>71</v>
@@ -27376,10 +26650,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:03:36</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44275.7525</v>
       </c>
       <c r="I373" t="n">
         <v>2</v>
@@ -27443,10 +26715,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:03:34</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44275.75247685185</v>
       </c>
       <c r="I374" t="n">
         <v>1</v>
@@ -27522,10 +26792,8 @@
           <t>4292474402</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:03:32</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44275.7524537037</v>
       </c>
       <c r="I375" t="n">
         <v>7</v>
@@ -27593,10 +26861,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:03:26</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44275.75238425926</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -27664,10 +26930,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:03:26</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44275.75238425926</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -27743,10 +27007,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:03:24</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44275.75236111111</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -27822,10 +27084,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:03:24</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44275.75236111111</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -27901,10 +27161,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:03:14</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44275.75224537037</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -27980,10 +27238,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:03:07</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44275.75216435185</v>
       </c>
       <c r="I381" t="n">
         <v>124</v>
@@ -28055,10 +27311,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:03:07</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44275.75216435185</v>
       </c>
       <c r="I382" t="n">
         <v>96</v>
@@ -28126,10 +27380,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:03:06</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44275.75215277778</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28201,10 +27453,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:02:56</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44275.75203703704</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28272,10 +27522,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:02:55</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44275.75202546296</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28344,10 +27592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:02:47</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44275.75193287037</v>
       </c>
       <c r="I386" t="n">
         <v>35</v>
@@ -28419,10 +27665,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:02:36</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44275.75180555556</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28490,10 +27734,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:02:35</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44275.75179398148</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28565,10 +27807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:02:04</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44275.75143518519</v>
       </c>
       <c r="I389" t="n">
         <v>444</v>
@@ -28632,10 +27872,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:02:00</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44275.75138888889</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28703,10 +27941,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:01:58</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44275.75136574074</v>
       </c>
       <c r="I391" t="n">
         <v>152</v>
@@ -28770,10 +28006,8 @@
           <t>4292464271</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:01:54</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44275.75131944445</v>
       </c>
       <c r="I392" t="n">
         <v>59</v>
@@ -28845,10 +28079,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:01:46</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44275.75122685185</v>
       </c>
       <c r="I393" t="n">
         <v>26</v>
@@ -28913,10 +28145,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:01:46</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44275.75122685185</v>
       </c>
       <c r="I394" t="n">
         <v>1</v>
@@ -28980,10 +28210,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:01:44</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44275.7512037037</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29055,10 +28283,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:01:43</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44275.75119212963</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29130,10 +28356,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:01:42</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44275.75118055556</v>
       </c>
       <c r="I397" t="n">
         <v>1</v>
@@ -29205,10 +28429,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:01:34</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44275.75108796296</v>
       </c>
       <c r="I398" t="n">
         <v>263</v>
@@ -29276,10 +28498,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:01:25</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44275.75098379629</v>
       </c>
       <c r="I399" t="n">
         <v>1</v>
@@ -29347,10 +28567,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:01:10</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44275.75081018519</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29422,10 +28640,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:01:06</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44275.75076388889</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29504,10 +28720,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:00:56</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44275.75064814815</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29571,10 +28785,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:00:46</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44275.75053240741</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29650,10 +28862,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:00:44</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44275.75050925926</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -29729,10 +28939,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:00:41</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44275.75047453704</v>
       </c>
       <c r="I405" t="n">
         <v>1364</v>
@@ -29800,10 +29008,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:00:38</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44275.75043981482</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -29867,10 +29073,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:00:38</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44275.75043981482</v>
       </c>
       <c r="I407" t="n">
         <v>1</v>
